--- a/Plan/Table/Test_Data/09.Monster_Table.xlsx
+++ b/Plan/Table/Test_Data/09.Monster_Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E386DB1-24DC-443F-9A96-5A097D4748FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D832BB0D-0EA8-45E0-A2F0-805C4D666F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D06B092A-2352-4028-9B7E-E5D55195A8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{321B051E-8EC0-401C-AA20-AF920D459E79}"/>
   </bookViews>
   <sheets>
     <sheet name="09.Monster_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -44,9 +44,6 @@
     <t>name_id</t>
   </si>
   <si>
-    <t>descriton</t>
-  </si>
-  <si>
     <t>trait_id_1</t>
   </si>
   <si>
@@ -56,6 +53,12 @@
     <t>trait_id_3</t>
   </si>
   <si>
+    <t>trait_id_4</t>
+  </si>
+  <si>
+    <t>trait_id_5</t>
+  </si>
+  <si>
     <t>item_id_w</t>
   </si>
   <si>
@@ -78,51 +81,6 @@
   </si>
   <si>
     <t>magic_armor</t>
-  </si>
-  <si>
-    <t>기본형태의 고블린</t>
-  </si>
-  <si>
-    <t>검을 든 고블린</t>
-  </si>
-  <si>
-    <t>활을 든 고블린</t>
-  </si>
-  <si>
-    <t>기본 고블린 약화 1</t>
-  </si>
-  <si>
-    <t>기본 고블린 약화 2</t>
-  </si>
-  <si>
-    <t>기본 고블린 약화 3</t>
-  </si>
-  <si>
-    <t>기본 고블린 약화 4</t>
-  </si>
-  <si>
-    <t>고블린 검사 약화 1</t>
-  </si>
-  <si>
-    <t>고블린 검사 약화 2</t>
-  </si>
-  <si>
-    <t>고블린 검사 약화 3</t>
-  </si>
-  <si>
-    <t>고블린 검사 약화 4</t>
-  </si>
-  <si>
-    <t>고블린 아처 약화 1</t>
-  </si>
-  <si>
-    <t>고블린 아처 약화 2</t>
-  </si>
-  <si>
-    <t>고블린 아처 약화 3</t>
-  </si>
-  <si>
-    <t>고블린 아처 약화 4</t>
   </si>
   <si>
     <t>recovery</t>
@@ -541,16 +499,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422E9322-D673-4DF6-BCA7-9003F2C86300}">
-  <dimension ref="A1:Z16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528F097-32F7-4071-B522-722AAA7B6736}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z1048576"/>
+      <selection sqref="A1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,51 +553,54 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -662,63 +624,66 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L2">
+        <v>2500</v>
+      </c>
+      <c r="M2">
         <v>2000</v>
-      </c>
-      <c r="M2">
-        <v>2750</v>
       </c>
       <c r="N2">
         <v>2750</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>120</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>100</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>80</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>110</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -742,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>2500</v>
@@ -754,51 +719,54 @@
         <v>2500</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>10</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>125</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>100</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>80</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>110</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -822,66 +790,69 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3500</v>
-      </c>
-      <c r="M4">
-        <v>2250</v>
       </c>
       <c r="N4">
         <v>2250</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>120</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>75</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>240</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>110</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="C5">
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -902,66 +873,69 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L5">
+        <v>2500</v>
+      </c>
+      <c r="M5">
         <v>2000</v>
-      </c>
-      <c r="M5">
-        <v>2750</v>
       </c>
       <c r="N5">
         <v>2750</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>120</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>100</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>80</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>110</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
+      <c r="C6">
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -982,66 +956,69 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L6">
+        <v>2500</v>
+      </c>
+      <c r="M6">
         <v>2000</v>
-      </c>
-      <c r="M6">
-        <v>2750</v>
       </c>
       <c r="N6">
         <v>2750</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>120</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>100</v>
       </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>80</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>110</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
+      <c r="C7">
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1062,66 +1039,69 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L7">
+        <v>2500</v>
+      </c>
+      <c r="M7">
         <v>2000</v>
-      </c>
-      <c r="M7">
-        <v>2750</v>
       </c>
       <c r="N7">
         <v>2750</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>120</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>100</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>80</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>110</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
+      <c r="C8">
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1142,66 +1122,69 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L8">
+        <v>2500</v>
+      </c>
+      <c r="M8">
         <v>2000</v>
-      </c>
-      <c r="M8">
-        <v>2750</v>
       </c>
       <c r="N8">
         <v>2750</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>120</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>100</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>80</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>110</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
+      <c r="C9">
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1222,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>2500</v>
@@ -1234,54 +1217,57 @@
         <v>2500</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>10</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>125</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>100</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>80</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>110</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
+      <c r="C10">
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1302,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>2500</v>
@@ -1314,54 +1300,57 @@
         <v>2500</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>10</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>125</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>100</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
         <v>80</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>110</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
+      <c r="C11">
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1382,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>2500</v>
@@ -1394,54 +1383,57 @@
         <v>2500</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>10</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>125</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>100</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
       <c r="U11">
         <v>1</v>
       </c>
       <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>80</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>110</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
+      <c r="C12">
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1462,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>2500</v>
@@ -1474,54 +1466,57 @@
         <v>2500</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>10</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>125</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>100</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
       <c r="U12">
         <v>1</v>
       </c>
       <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>80</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>110</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
+      <c r="C13">
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1542,66 +1537,69 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>2000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3500</v>
-      </c>
-      <c r="M13">
-        <v>2250</v>
       </c>
       <c r="N13">
         <v>2250</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>5</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>120</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>75</v>
       </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>240</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>110</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
+      <c r="C14">
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1622,66 +1620,69 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>2000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3500</v>
-      </c>
-      <c r="M14">
-        <v>2250</v>
       </c>
       <c r="N14">
         <v>2250</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>5</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>120</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>75</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>240</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>110</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
+      <c r="C15">
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1702,66 +1703,69 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>2000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3500</v>
-      </c>
-      <c r="M15">
-        <v>2250</v>
       </c>
       <c r="N15">
         <v>2250</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>5</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>120</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>75</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
         <v>240</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>110</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
+      <c r="C16">
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1782,51 +1786,54 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>2000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3500</v>
-      </c>
-      <c r="M16">
-        <v>2250</v>
       </c>
       <c r="N16">
         <v>2250</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>5</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>120</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>75</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
       <c r="U16">
         <v>1</v>
       </c>
       <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
         <v>240</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>110</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>0</v>
       </c>
     </row>
